--- a/biology/Botanique/Rubroboletus_rhodoxanthus/Rubroboletus_rhodoxanthus.xlsx
+++ b/biology/Botanique/Rubroboletus_rhodoxanthus/Rubroboletus_rhodoxanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet rouge et jaune
 Rubroboletus rhodoxanthus, le Bolet rouge et jaune, anciennement Boletus rhodoxanthus, est une espèce toxique de champignons (Fungi) basidiomycètes du genre Rubroboletus dans la famille des Boletaceae. Il est caractérisé par son chapeau blanchâtre rosâtre, son réseau étendu bien visible et sa chair jaune vif, bleuissant uniquement au niveau du chapeau à la coupe.
@@ -512,62 +524,240 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rubroboletus rhodoxanthus (Krombh.) Kuan Zhao &amp; Zhu L.Yang[1]. 
-Le basionyme de ce taxon est : Boletus sanguineus rhodoxanthus Krombh.[1]
-Synonymes
-Rubroboletus rhodoxanthus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rubroboletus rhodoxanthus (Krombh.) Kuan Zhao &amp; Zhu L.Yang. 
+Le basionyme de ce taxon est : Boletus sanguineus rhodoxanthus Krombh.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rubroboletus_rhodoxanthus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_rhodoxanthus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rubroboletus rhodoxanthus a pour synonymes :
 Boletus purpureus var. rhodoxanthus (Krombh.) M.M.Moser
 Boletus rhodopurpureus var. rhodoxanthus (Krombh.) Bon
 Boletus rhodoxanthus (Krombh.) Kallenb.
 Boletus romagnesii J.Hlavácek
 Boletus sanguineus var. rhodoxanthus Krombh.
-Suillellus rhodoxanthus (Krombh.) Blanco-Dios
-Phylogénie
-Ce champignon a été décrit pour la première fois en 1836 par le mycologue tchèque Julius Vincenz von Krombholz, qui le considérait comme une variété de Boletus sanguineus[2]. En 1925, il a été recombiné en une espèce distincte par le mycologue allemand Franz Joseph Kallenbach[3], et le champignon est resté dans le genre Boletus jusqu'en 2014.
-Les premières études phylogénétiques approfondies sur les Boletaceae en 2006[4] et 2013[5] ont indiqué que Boletus n'était pas monophylétique et était donc un arrangement artificiel. Une étude réalisée en 2014 par Wu et ses collègues a reconnu 22 clades génériques au sein des Boletaceae, concluant que Boletus dupainii et certaines espèces étroitement apparentées à pores rouges appartiennent à un clade distinct, éloigné du clade principal de Boletus (comprenant Boletus edulis et des taxons alliés)[6]. Le nouveau genre Rubroboletus fut donc décrit pour accueillir les espèces de ce clade et B. rhodoxanthus fut transféré à ce genre[7]. Le placement de l'espèce dans le genre Suillellus, à la suite d'une recombinaison en ligne par Blanco-Dios[8], n'a pas été étayé par des données moléculaires et a ensuite été rejeté par les auteurs ultérieurs[9],[10].
-Étymologie
-L'épithète spécifique est dérivée des mots grecs anciens ρόδο (rhódo, « rose »). ") et ξανθός (xanthós, « blonde »).
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet rouge et jaune[11].
+Suillellus rhodoxanthus (Krombh.) Blanco-Dios</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rubroboletus_rhodoxanthus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_rhodoxanthus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon a été décrit pour la première fois en 1836 par le mycologue tchèque Julius Vincenz von Krombholz, qui le considérait comme une variété de Boletus sanguineus. En 1925, il a été recombiné en une espèce distincte par le mycologue allemand Franz Joseph Kallenbach, et le champignon est resté dans le genre Boletus jusqu'en 2014.
+Les premières études phylogénétiques approfondies sur les Boletaceae en 2006 et 2013 ont indiqué que Boletus n'était pas monophylétique et était donc un arrangement artificiel. Une étude réalisée en 2014 par Wu et ses collègues a reconnu 22 clades génériques au sein des Boletaceae, concluant que Boletus dupainii et certaines espèces étroitement apparentées à pores rouges appartiennent à un clade distinct, éloigné du clade principal de Boletus (comprenant Boletus edulis et des taxons alliés). Le nouveau genre Rubroboletus fut donc décrit pour accueillir les espèces de ce clade et B. rhodoxanthus fut transféré à ce genre. Le placement de l'espèce dans le genre Suillellus, à la suite d'une recombinaison en ligne par Blanco-Dios, n'a pas été étayé par des données moléculaires et a ensuite été rejeté par les auteurs ultérieurs,.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Rubroboletus_rhodoxanthus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rubroboletus_rhodoxanthus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+L'épithète spécifique est dérivée des mots grecs anciens ρόδο (rhódo, « rose »). ") et ξανθός (xanthós, « blonde »).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rubroboletus_rhodoxanthus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_rhodoxanthus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet rouge et jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rubroboletus_rhodoxanthus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_rhodoxanthus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques morphologiques du Bolet rouge et jaune sont les suivantes : 
 Son chapeau mesure 5 à 20 cm, il est blanchâtre à café-au-lait, avec souvent du rose, surtout au bord. 
 Son hyménophore présente des tubes jaunâtres olivâtres terminés par des pores de couleur rouge sang vif à pourpre, parfois rouge orangé au bord, orangés avec l’âge, peu bleuissants.
 Son stipe mesure 5 à 15 cm x 1,5 à 5 cm, il est généralement jaune dans sa moitié supérieure et rouge dans sa moitié inférieure, couvert entièrement par un réseau rouge vif bien défini en relief. Dans les blessures, la chair apparaît jaune d'or.
-Sa chair est jaune, bleuissante uniquement au niveau du chapeau (et encore, faiblement), pas dans le stipe[12],[13].
-Caractéristiques microscopiques
-Ses spores mesurent 10,5-15 x 4,5-6 μm[13].
+Sa chair est jaune, bleuissante uniquement au niveau du chapeau (et encore, faiblement), pas dans le stipe,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rubroboletus_rhodoxanthus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_rhodoxanthus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 10,5-15 x 4,5-6 μm.
 </t>
         </is>
       </c>
